--- a/input/reviewed_duplicates.xlsx
+++ b/input/reviewed_duplicates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E3EF54B-A08F-47BB-B293-5896756F4E97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08F0FC95-70EF-4531-AE4F-FEB34FD90178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>TPTdataset</t>
   </si>
@@ -133,49 +133,34 @@
     <t>NMNH</t>
   </si>
   <si>
+    <t>Polygenis (Polygenis)</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Arthropoda</t>
+  </si>
+  <si>
+    <t>Insecta</t>
+  </si>
+  <si>
+    <t>Siphonaptera</t>
+  </si>
+  <si>
+    <t>Rhopalopsyllidae</t>
+  </si>
+  <si>
+    <t>Polygenis</t>
+  </si>
+  <si>
     <t>Dinopsyllus (Dinopsyllus)</t>
   </si>
   <si>
-    <t>Animalia</t>
-  </si>
-  <si>
-    <t>Arthropoda</t>
-  </si>
-  <si>
-    <t>Insecta</t>
-  </si>
-  <si>
-    <t>Siphonaptera</t>
-  </si>
-  <si>
     <t>Hystrichopsyllidae</t>
   </si>
   <si>
     <t>Dinopsyllus</t>
-  </si>
-  <si>
-    <t>Polygenis (Polygenis)</t>
-  </si>
-  <si>
-    <t>Rhopalopsyllidae</t>
-  </si>
-  <si>
-    <t>Polygenis</t>
-  </si>
-  <si>
-    <t>Pulex (Pulex)</t>
-  </si>
-  <si>
-    <t>Pulicidae</t>
-  </si>
-  <si>
-    <t>Pulex</t>
-  </si>
-  <si>
-    <t>Pygiopsylla</t>
-  </si>
-  <si>
-    <t>Pygiopsyllidae</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1001,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="25.453125" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1140,10 +1127,10 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
         <v>38</v>
@@ -1163,8 +1150,11 @@
       <c r="X2" t="s">
         <v>43</v>
       </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
       <c r="AB2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="s">
         <v>43</v>
@@ -1175,10 +1165,10 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>624</v>
+        <v>251</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
         <v>38</v>
@@ -1193,19 +1183,19 @@
         <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s">
         <v>24</v>
       </c>
       <c r="AJ3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
@@ -1213,10 +1203,10 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>211</v>
+        <v>624</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
@@ -1236,8 +1226,11 @@
       <c r="X4" t="s">
         <v>46</v>
       </c>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
       <c r="AB4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="s">
         <v>46</v>
@@ -1251,7 +1244,7 @@
         <v>1025</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s">
         <v>38</v>
@@ -1266,127 +1259,19 @@
         <v>41</v>
       </c>
       <c r="W5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB5" t="s">
         <v>24</v>
       </c>
       <c r="AJ5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>287</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" t="s">
-        <v>40</v>
-      </c>
-      <c r="V6" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7">
-        <v>831</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V7" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
-      </c>
-      <c r="X7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>239</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V8" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/input/reviewed_duplicates.xlsx
+++ b/input/reviewed_duplicates.xlsx
@@ -8,19 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08F0FC95-70EF-4531-AE4F-FEB34FD90178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1AA787A-AEA7-4A21-981B-A5B37FD380CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
-    <sheet name="NMNH_review_duplicates" sheetId="1" r:id="rId1"/>
+    <sheet name="Lewis_duplicates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="257">
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>subfamily</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>namePublishedInYear</t>
+  </si>
+  <si>
+    <t>synonym(s)</t>
+  </si>
   <si>
     <t>TPTdataset</t>
   </si>
@@ -70,9 +91,6 @@
     <t>namePublishedIn</t>
   </si>
   <si>
-    <t>namePublishedInYear</t>
-  </si>
-  <si>
     <t>higherClassification</t>
   </si>
   <si>
@@ -88,12 +106,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>genus</t>
-  </si>
-  <si>
     <t>subgenus</t>
   </si>
   <si>
@@ -130,10 +142,28 @@
     <t>canonicalName</t>
   </si>
   <si>
-    <t>NMNH</t>
-  </si>
-  <si>
-    <t>Polygenis (Polygenis)</t>
+    <t>Ceratophyllidae</t>
+  </si>
+  <si>
+    <t>Ceratophyllinae</t>
+  </si>
+  <si>
+    <t>Jellisonia</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Traub</t>
+  </si>
+  <si>
+    <t>Pleochaetoides Augustson, 1944 (subgenus); Jellisonia Traub, 1944 (subgenus)</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Jellisonia Traub, 1944</t>
   </si>
   <si>
     <t>Animalia</t>
@@ -148,19 +178,619 @@
     <t>Siphonaptera</t>
   </si>
   <si>
-    <t>Rhopalopsyllidae</t>
-  </si>
-  <si>
-    <t>Polygenis</t>
-  </si>
-  <si>
-    <t>Dinopsyllus (Dinopsyllus)</t>
-  </si>
-  <si>
-    <t>Hystrichopsyllidae</t>
-  </si>
-  <si>
-    <t>Dinopsyllus</t>
+    <t>Traub, 1944</t>
+  </si>
+  <si>
+    <t>accepted</t>
+  </si>
+  <si>
+    <t>Ceratophyllus</t>
+  </si>
+  <si>
+    <t>hirundinis</t>
+  </si>
+  <si>
+    <t>(Curtis)</t>
+  </si>
+  <si>
+    <t>Pulex hirundinis Köhler, 1832 (junior homonym); Ceratophyllus hirundinis Chao, 1947 (junior homonym); Ceratophyllus hirundinis oiticus Peus, 1954; Ceratophyllus phaulius Rothschild, 1909; Ceratophyllus pinnatus Wagner, 1898; Ceratophyllus troglodytes Dampf, 1908</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis (Curtis, 1826)</t>
+  </si>
+  <si>
+    <t>(Curtis, 1826)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hirundinis</t>
+  </si>
+  <si>
+    <t>Ctenophthalmidae</t>
+  </si>
+  <si>
+    <t>Rhadinopsyllinae</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla</t>
+  </si>
+  <si>
+    <t>semenovi</t>
+  </si>
+  <si>
+    <t>Argyropulo</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla semenovi Argyropulo, 1941</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla semenovi Argyropulo, 1946</t>
+  </si>
+  <si>
+    <t>Argyropulo, 1946</t>
+  </si>
+  <si>
+    <t>Rhadinopsylla semenovi</t>
+  </si>
+  <si>
+    <t>Thrassis</t>
+  </si>
+  <si>
+    <t>acamantis</t>
+  </si>
+  <si>
+    <t>(Rothschild)</t>
+  </si>
+  <si>
+    <t>Thrassis howelli (Jordan, 1933); Thrassis acamantis Stark, 1970; Thrassis pristinus Stark, 1957; Thrassis utahensis Wagner, 1936</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis (Rothschild, 1905)</t>
+  </si>
+  <si>
+    <t>(Rothschild, 1905)</t>
+  </si>
+  <si>
+    <t>Thrassis acamantis</t>
+  </si>
+  <si>
+    <t>Pulicidae</t>
+  </si>
+  <si>
+    <t>Xenopsyllinae</t>
+  </si>
+  <si>
+    <t>Xenopsylla</t>
+  </si>
+  <si>
+    <t>skrjabini</t>
+  </si>
+  <si>
+    <t>Ioff</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1928 (only later 1930 did Ioff describe)</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini Ioff, 1930</t>
+  </si>
+  <si>
+    <t>Ioff, 1930</t>
+  </si>
+  <si>
+    <t>Xenopsylla skrjabini</t>
+  </si>
+  <si>
+    <t>Ischnopsyllidae</t>
+  </si>
+  <si>
+    <t>Ischnopsyllinae</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla</t>
+  </si>
+  <si>
+    <t>hexactenus</t>
+  </si>
+  <si>
+    <t>(Kolenati)</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Pulex vespertilionis Bouché, 1835; Pulex vespertilionis Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Lewis1210</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus hexactenus (Kolenati, 1856)</t>
+  </si>
+  <si>
+    <t>bouchei</t>
+  </si>
+  <si>
+    <t>Oudemans, 1906</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei</t>
+  </si>
+  <si>
+    <t>Leptopsyllidae</t>
+  </si>
+  <si>
+    <t>Leptopsyllinae</t>
+  </si>
+  <si>
+    <t>Pulex</t>
+  </si>
+  <si>
+    <t>segnis</t>
+  </si>
+  <si>
+    <t>(Schönherr)</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
+  </si>
+  <si>
+    <t>Lewis1327</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Leptopsylla segnis (Schönherr, 1811)</t>
+  </si>
+  <si>
+    <t>musculi</t>
+  </si>
+  <si>
+    <t>Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Pulex musculi</t>
+  </si>
+  <si>
+    <t>Neopsyllinae</t>
+  </si>
+  <si>
+    <t>mokrzeckyi</t>
+  </si>
+  <si>
+    <t>(Wagner)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
+  </si>
+  <si>
+    <t>Lewis1727</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904</t>
+  </si>
+  <si>
+    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
+  </si>
+  <si>
+    <t>acutus</t>
+  </si>
+  <si>
+    <t>Baker, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus</t>
+  </si>
+  <si>
+    <t>montana</t>
+  </si>
+  <si>
+    <t>(Baker)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Lewis1858</t>
+  </si>
+  <si>
+    <t>Oropsylla montana (Baker, 1895)</t>
+  </si>
+  <si>
+    <t>Spilopsyllinae</t>
+  </si>
+  <si>
+    <t>Acediopsylla</t>
+  </si>
+  <si>
+    <t>simplex</t>
+  </si>
+  <si>
+    <t>Acediopsylla Ewing, 1940; Cediopsylla Jordan, 1925</t>
+  </si>
+  <si>
+    <t>Lewis2405</t>
+  </si>
+  <si>
+    <t>Acediopsylla Ewing, 1940</t>
+  </si>
+  <si>
+    <t>Spilopsyllus simplex (Baker, 1895)</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>Ewing, 1940</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus kolenatii Wagner, 1930</t>
+  </si>
+  <si>
+    <t>kolenatii</t>
+  </si>
+  <si>
+    <t>Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus kolenatii</t>
+  </si>
+  <si>
+    <t>Diamanus</t>
+  </si>
+  <si>
+    <t>Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>hopkinsi</t>
+  </si>
+  <si>
+    <t>Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Diamanus hopkinsi</t>
+  </si>
+  <si>
+    <t>Cediopsylla</t>
+  </si>
+  <si>
+    <t>Cediopsylla Jordan, 1925</t>
+  </si>
+  <si>
+    <t>Jordan, 1925</t>
+  </si>
+  <si>
+    <t>grandis</t>
+  </si>
+  <si>
+    <t>Neopsylla striata Stewart, 1926; Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Lewis2514</t>
+  </si>
+  <si>
+    <t>Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Tamiophila grandis (Rothschild, 1902)</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
+  </si>
+  <si>
+    <t>vagabundus vagabundus</t>
+  </si>
+  <si>
+    <t>(Boheman)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus digitalis Wahlgren, 1903; Ceratophyllus monedulae Wahlgren, 1907; Ceratophyllus vagabundus orientalis Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Lewis368</t>
+  </si>
+  <si>
+    <t>Ceratophyllus monedulae Wahlgren, 1907</t>
+  </si>
+  <si>
+    <t>Ceratophyllus vagabundus vagabundus (Boheman, 1866)</t>
+  </si>
+  <si>
+    <t>monedulae</t>
+  </si>
+  <si>
+    <t>Wahlgren, 1907</t>
+  </si>
+  <si>
+    <t>Ceratophyllus monedulae</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hexactena petropolitana Wagner, 1898</t>
+  </si>
+  <si>
+    <t>hexactena</t>
+  </si>
+  <si>
+    <t>petropolitana</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
+    <t>Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hexactena petropolitana</t>
+  </si>
+  <si>
+    <t>Pulex vespertilionis Bouché, 1835</t>
+  </si>
+  <si>
+    <t>vespertilionis</t>
+  </si>
+  <si>
+    <t>Bouché, 1835</t>
+  </si>
+  <si>
+    <t>Pulex vespertilionis</t>
+  </si>
+  <si>
+    <t>Trichopsylla</t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
+    <t>Lewis91</t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Amalaraeus Ioff, 1936</t>
+  </si>
+  <si>
+    <t>Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Pygiopsyllidae</t>
+  </si>
+  <si>
+    <t>Glauertidos</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild</t>
+  </si>
+  <si>
+    <t>Akmepsylla Wagner, 1933; Glauertidos M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Lewis22</t>
+  </si>
+  <si>
+    <t>Glauertidos M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Acanthopsylla Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Ctenophthalminae</t>
+  </si>
+  <si>
+    <t>Palaeopsylla</t>
+  </si>
+  <si>
+    <t>aporema</t>
+  </si>
+  <si>
+    <t>Smit &amp; Rosicky</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975 (Female)</t>
+  </si>
+  <si>
+    <t>Lewis1881</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>Palaeopsylla aporema Smit &amp; Rosicky, 1976</t>
+  </si>
+  <si>
+    <t>makaluensis</t>
+  </si>
+  <si>
+    <t>Brelih, 1975</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis</t>
+  </si>
+  <si>
+    <t>Pygiopsylla</t>
+  </si>
+  <si>
+    <t>hoplia</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female); Pygiopsylla spinata Holland, 1969</t>
+  </si>
+  <si>
+    <t>Lewis2257</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla hoplia Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>congrua</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua</t>
+  </si>
+  <si>
+    <t>intermedius</t>
+  </si>
+  <si>
+    <t>Ceratopsylla wagneri Kohaut, 1903; Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
+  </si>
+  <si>
+    <t>Lewis1214</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus intermedius (Rothschild, 1898)</t>
+  </si>
+  <si>
+    <t>schmitzi</t>
+  </si>
+  <si>
+    <t>Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>female Ischnopsyllus intermedius</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi</t>
+  </si>
+  <si>
+    <t>Oropsylla</t>
+  </si>
+  <si>
+    <t>Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
+  </si>
+  <si>
+    <t>mandarina</t>
+  </si>
+  <si>
+    <t>Oropsylla montana mandarina</t>
+  </si>
+  <si>
+    <t>Archaeopsyllinae</t>
+  </si>
+  <si>
+    <t>canis</t>
+  </si>
+  <si>
+    <t>Pulex canis Curtis, 1826 (junior homonym); Pulex canis Dugès, 1832 (junior homonym); Ctenocephalus novemdentatus Kolenati, 1859</t>
+  </si>
+  <si>
+    <t>Lewis516</t>
+  </si>
+  <si>
+    <t>Pulex canis Curtis, 1826</t>
+  </si>
+  <si>
+    <t>Ctenocephalides canis (Curtis, 1926)</t>
+  </si>
+  <si>
+    <t>Curtis, 1826</t>
+  </si>
+  <si>
+    <t>junior homonym</t>
+  </si>
+  <si>
+    <t>Pulex canis</t>
+  </si>
+  <si>
+    <t>Doratopsyllinae</t>
+  </si>
+  <si>
+    <t>Spalacopsylla</t>
+  </si>
+  <si>
+    <t>Ewing</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Lewis41</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930</t>
+  </si>
+  <si>
+    <t>Adoratopsylla Ewing, 1925</t>
+  </si>
+  <si>
+    <t>Pinto, 1930</t>
+  </si>
+  <si>
+    <t>junior synonym</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus</t>
+  </si>
+  <si>
+    <t>agyrtes peusianus</t>
+  </si>
+  <si>
+    <t>Rosicky</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim); Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
+  </si>
+  <si>
+    <t>Lewis548</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes peusianus Rosicky, 1955</t>
+  </si>
+  <si>
+    <t>agyrtes</t>
+  </si>
+  <si>
+    <t>slovacicus</t>
+  </si>
+  <si>
+    <t>Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>partim</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>orphilus</t>
+  </si>
+  <si>
+    <t>tatricus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus</t>
   </si>
 </sst>
 </file>
@@ -1001,18 +1631,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="40" max="40" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,157 +1751,3189 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2">
+        <v>1895</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2">
+        <v>2999</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3">
+        <v>1895</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>3232</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" t="s">
+        <v>132</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4">
+        <v>1916</v>
+      </c>
+      <c r="G4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>2930</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>116</v>
+      </c>
+      <c r="S4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>1856</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>3303</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>165</v>
+      </c>
+      <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>1826</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>337</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7">
+        <v>1866</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7">
+        <v>3259</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>160</v>
+      </c>
+      <c r="S7" t="s">
+        <v>161</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" t="s">
+        <v>43</v>
+      </c>
+      <c r="X7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8">
+        <v>1955</v>
+      </c>
+      <c r="G8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>3073</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" t="s">
+        <v>246</v>
+      </c>
+      <c r="S8" t="s">
+        <v>247</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9">
+        <v>1955</v>
+      </c>
+      <c r="G9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>3263</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>245</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s">
+        <v>253</v>
+      </c>
+      <c r="S9" t="s">
+        <v>247</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10">
+        <v>1916</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>3212</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" t="s">
+        <v>117</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11">
+        <v>1922</v>
+      </c>
+      <c r="G11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>3152</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>185</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" t="s">
+        <v>187</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>1856</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>3193</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>136</v>
+      </c>
+      <c r="S12" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13">
+        <v>1898</v>
+      </c>
+      <c r="G13" t="s">
         <v>211</v>
       </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>3194</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" t="s">
+        <v>213</v>
+      </c>
+      <c r="S13" t="s">
+        <v>214</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="V2" t="s">
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>43</v>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>1944</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>1251</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>251</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>1856</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>2882</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" t="s">
+        <v>93</v>
+      </c>
+      <c r="S15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="V3" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="W3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16">
+        <v>1895</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="I16">
+        <v>3216</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>220</v>
+      </c>
+      <c r="S16" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17">
+        <v>1976</v>
+      </c>
+      <c r="G17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="I17">
+        <v>2952</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" t="s">
+        <v>195</v>
+      </c>
+      <c r="S17" t="s">
+        <v>196</v>
+      </c>
+      <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <v>1926</v>
+      </c>
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
+      <c r="I18">
+        <v>2841</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
+        <v>226</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" t="s">
+        <v>227</v>
+      </c>
+      <c r="S18" t="s">
+        <v>228</v>
+      </c>
+      <c r="T18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>624</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>1902</v>
+      </c>
+      <c r="G19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19">
+        <v>3236</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" t="s">
+        <v>151</v>
+      </c>
+      <c r="S19" t="s">
+        <v>152</v>
+      </c>
+      <c r="T19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20">
+        <v>1811</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>2893</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" t="s">
+        <v>106</v>
+      </c>
+      <c r="S20" t="s">
+        <v>107</v>
+      </c>
+      <c r="T20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" t="s">
+        <v>43</v>
+      </c>
+      <c r="X20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21">
+        <v>1856</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>3347</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" t="s">
+        <v>171</v>
+      </c>
+      <c r="S21" t="s">
+        <v>94</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22">
+        <v>1922</v>
+      </c>
+      <c r="G22" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>2984</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" t="s">
+        <v>205</v>
+      </c>
+      <c r="S22" t="s">
+        <v>206</v>
+      </c>
+      <c r="T22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>1946</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23">
+        <v>2334</v>
+      </c>
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" t="s">
+        <v>67</v>
+      </c>
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24">
+        <v>1925</v>
+      </c>
+      <c r="G24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24">
+        <v>2743</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" t="s">
+        <v>237</v>
+      </c>
+      <c r="S24" t="s">
+        <v>238</v>
+      </c>
+      <c r="T24" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="V4" t="s">
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="W4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25">
+        <v>1905</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="I25">
+        <v>2533</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <v>1936</v>
+      </c>
+      <c r="G26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="AB4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="I26">
+        <v>2744</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" t="s">
+        <v>178</v>
+      </c>
+      <c r="S26" t="s">
+        <v>179</v>
+      </c>
+      <c r="T26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27">
+        <v>1930</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1025</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>43</v>
+      <c r="I27">
+        <v>2710</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" t="s">
+        <v>43</v>
+      </c>
+      <c r="W27" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/input/reviewed_duplicates.xlsx
+++ b/input/reviewed_duplicates.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DEF745-6ACD-4AB8-9F4B-422DCE82E880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{C3DEF745-6ACD-4AB8-9F4B-422DCE82E880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{048E3756-0EB0-4B3E-BCE4-72F982562D9D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lewis_duplicates" sheetId="1" r:id="rId1"/>
@@ -298,9 +298,6 @@
     <t>Acediopsylla Ewing, 1940; Cediopsylla Jordan, 1925</t>
   </si>
   <si>
-    <t>Lewis2404</t>
-  </si>
-  <si>
     <t>Acediopsylla Ewing, 1940</t>
   </si>
   <si>
@@ -320,12 +317,15 @@
   </si>
   <si>
     <t>Jordan, 1925</t>
+  </si>
+  <si>
+    <t>Lewis12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1159,15 +1159,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="18" max="18" width="34.36328125" customWidth="1"/>
     <col min="40" max="40" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1319,7 +1320,7 @@
         <v>46</v>
       </c>
       <c r="I2">
-        <v>2998</v>
+        <v>2790</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
@@ -1328,28 +1329,28 @@
         <v>43</v>
       </c>
       <c r="L2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
         <v>92</v>
       </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>93</v>
-      </c>
-      <c r="S2" t="s">
-        <v>94</v>
       </c>
       <c r="T2" t="s">
         <v>43</v>
@@ -1388,13 +1389,13 @@
         <v>43</v>
       </c>
       <c r="AF2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" t="s">
         <v>95</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>96</v>
       </c>
       <c r="AI2" t="s">
         <v>43</v>
@@ -1423,7 +1424,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>90</v>
@@ -1441,7 +1442,7 @@
         <v>46</v>
       </c>
       <c r="I3">
-        <v>3232</v>
+        <v>3171</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
@@ -1450,7 +1451,7 @@
         <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
         <v>43</v>
@@ -1468,10 +1469,10 @@
         <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T3" t="s">
         <v>43</v>
@@ -1510,13 +1511,13 @@
         <v>43</v>
       </c>
       <c r="AF3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s">
         <v>43</v>
       </c>
       <c r="AH3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI3" t="s">
         <v>43</v>
@@ -1534,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="AN3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
@@ -1563,7 +1564,7 @@
         <v>46</v>
       </c>
       <c r="I4">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
@@ -1685,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="I5">
-        <v>1251</v>
+        <v>319</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
@@ -1807,7 +1808,7 @@
         <v>46</v>
       </c>
       <c r="I6">
-        <v>2333</v>
+        <v>367</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
@@ -1929,7 +1930,7 @@
         <v>46</v>
       </c>
       <c r="I7">
-        <v>2532</v>
+        <v>399</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -2051,7 +2052,7 @@
         <v>46</v>
       </c>
       <c r="I8">
-        <v>2709</v>
+        <v>417</v>
       </c>
       <c r="J8" t="s">
         <v>43</v>
@@ -2148,8 +2149,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN62">
-    <sortCondition ref="AN2:AN62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN8">
+    <sortCondition ref="AN2:AN8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input/reviewed_duplicates.xlsx
+++ b/input/reviewed_duplicates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{C3DEF745-6ACD-4AB8-9F4B-422DCE82E880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{048E3756-0EB0-4B3E-BCE4-72F982562D9D}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{C3DEF745-6ACD-4AB8-9F4B-422DCE82E880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B514177B-9B44-43C0-8713-67831BA7B1A8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="293">
   <si>
     <t>family</t>
   </si>
@@ -319,7 +319,586 @@
     <t>Jordan, 1925</t>
   </si>
   <si>
-    <t>Lewis12</t>
+    <t>Lewis3001</t>
+  </si>
+  <si>
+    <t>Lewis2404</t>
+  </si>
+  <si>
+    <t>Lewis3235</t>
+  </si>
+  <si>
+    <t>mokrzeckyi</t>
+  </si>
+  <si>
+    <t>(Wagner)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Diamanus hopkinsi Vargas, 1955; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Ceratophyllus sucinus Jordan &amp; Rothschild, 1921</t>
+  </si>
+  <si>
+    <t>Lewis2932</t>
+  </si>
+  <si>
+    <t>Lewis1728</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904</t>
+  </si>
+  <si>
+    <t>Nosopsyllus mokrzeckyi (Wagner, 1916)</t>
+  </si>
+  <si>
+    <t>acutus</t>
+  </si>
+  <si>
+    <t>Baker, 1904</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus</t>
+  </si>
+  <si>
+    <t>Ischnopsyllidae</t>
+  </si>
+  <si>
+    <t>Ischnopsyllinae</t>
+  </si>
+  <si>
+    <t>hexactenus</t>
+  </si>
+  <si>
+    <t>(Kolenati)</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906; Ischnopsyllus kolenatii Wagner, 1930; Ceratophyllus hexactena petropolitana Wagner, 1898; Pulex vespertilionis Bouché, 1835; Pulex vespertilionis Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Lewis3305</t>
+  </si>
+  <si>
+    <t>Lewis1211</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hexactena petropolitana Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus hexactenus (Kolenati, 1856)</t>
+  </si>
+  <si>
+    <t>hexactena</t>
+  </si>
+  <si>
+    <t>petropolitana</t>
+  </si>
+  <si>
+    <t>subspecies</t>
+  </si>
+  <si>
+    <t>Wagner, 1898</t>
+  </si>
+  <si>
+    <t>Ceratophyllus hexactena petropolitana</t>
+  </si>
+  <si>
+    <t>Lewis338</t>
+  </si>
+  <si>
+    <t>vagabundus vagabundus</t>
+  </si>
+  <si>
+    <t>(Boheman)</t>
+  </si>
+  <si>
+    <t>Ceratophyllus digitalis Wahlgren, 1903; Ceratophyllus monedulae Wahlgren, 1907; Ceratophyllus vagabundus orientalis Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Lewis3262</t>
+  </si>
+  <si>
+    <t>Lewis369</t>
+  </si>
+  <si>
+    <t>Ceratophyllus monedulae Wahlgren, 1907</t>
+  </si>
+  <si>
+    <t>Ceratophyllus vagabundus vagabundus (Boheman, 1866)</t>
+  </si>
+  <si>
+    <t>monedulae</t>
+  </si>
+  <si>
+    <t>Wahlgren, 1907</t>
+  </si>
+  <si>
+    <t>Ceratophyllus monedulae</t>
+  </si>
+  <si>
+    <t>Ctenophthalminae</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus</t>
+  </si>
+  <si>
+    <t>agyrtes peusianus</t>
+  </si>
+  <si>
+    <t>Rosicky</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951 (partim); Ctenophthalmus orphilus tatricus Rosicky, 1951 (partim); Ctenophthalmus agyrtes obenbergeri Rosicky, 1957</t>
+  </si>
+  <si>
+    <t>Lewis3075</t>
+  </si>
+  <si>
+    <t>Lewis549</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes peusianus Rosicky, 1955</t>
+  </si>
+  <si>
+    <t>agyrtes</t>
+  </si>
+  <si>
+    <t>slovacicus</t>
+  </si>
+  <si>
+    <t>Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>partim</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus agyrtes slovacicus</t>
+  </si>
+  <si>
+    <t>Lewis3266</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus Rosicky, 1951</t>
+  </si>
+  <si>
+    <t>orphilus</t>
+  </si>
+  <si>
+    <t>tatricus</t>
+  </si>
+  <si>
+    <t>Ctenophthalmus orphilus tatricus</t>
+  </si>
+  <si>
+    <t>Diamanus</t>
+  </si>
+  <si>
+    <t>Lewis3214</t>
+  </si>
+  <si>
+    <t>Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>hopkinsi</t>
+  </si>
+  <si>
+    <t>Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Diamanus hopkinsi</t>
+  </si>
+  <si>
+    <t>Pygiopsyllidae</t>
+  </si>
+  <si>
+    <t>Glauertidos</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild</t>
+  </si>
+  <si>
+    <t>Akmepsylla Wagner, 1933; Glauertidos M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Lewis3154</t>
+  </si>
+  <si>
+    <t>Lewis22</t>
+  </si>
+  <si>
+    <t>Glauertidos M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Acanthopsylla Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>M. Rothschild, 1937</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus</t>
+  </si>
+  <si>
+    <t>Lewis3195</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus kolenatii Wagner, 1930</t>
+  </si>
+  <si>
+    <t>kolenatii</t>
+  </si>
+  <si>
+    <t>Wagner, 1930</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus kolenatii</t>
+  </si>
+  <si>
+    <t>intermedius</t>
+  </si>
+  <si>
+    <t>Ceratopsylla wagneri Kohaut, 1903; Ischnopsyllus schmitzi Oudemans, 1909 (female Ischnopsyllus intermedius)</t>
+  </si>
+  <si>
+    <t>Lewis3196</t>
+  </si>
+  <si>
+    <t>Lewis1215</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus intermedius (Rothschild, 1898)</t>
+  </si>
+  <si>
+    <t>schmitzi</t>
+  </si>
+  <si>
+    <t>Oudemans, 1909</t>
+  </si>
+  <si>
+    <t>female Ischnopsyllus intermedius</t>
+  </si>
+  <si>
+    <t>Ischnopsyllus schmitzi</t>
+  </si>
+  <si>
+    <t>Lewis1252</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla</t>
+  </si>
+  <si>
+    <t>Lewis2882</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei Oudemans, 1906</t>
+  </si>
+  <si>
+    <t>bouchei</t>
+  </si>
+  <si>
+    <t>Oudemans, 1906</t>
+  </si>
+  <si>
+    <t>Nycteridopsylla bouchei</t>
+  </si>
+  <si>
+    <t>Oropsylla</t>
+  </si>
+  <si>
+    <t>montana</t>
+  </si>
+  <si>
+    <t>Ceratophyllus acutus Baker, 1904; Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911); Diamanus hopkinsi Vargas, 1955</t>
+  </si>
+  <si>
+    <t>Lewis3218</t>
+  </si>
+  <si>
+    <t>Lewis1859</t>
+  </si>
+  <si>
+    <t>Oropsylla montana mandarina (Jordan &amp; Rothschild, 1911)</t>
+  </si>
+  <si>
+    <t>Oropsylla montana (Baker, 1895)</t>
+  </si>
+  <si>
+    <t>mandarina</t>
+  </si>
+  <si>
+    <t>(Jordan &amp; Rothschild, 1911)</t>
+  </si>
+  <si>
+    <t>Oropsylla montana mandarina</t>
+  </si>
+  <si>
+    <t>Palaeopsylla</t>
+  </si>
+  <si>
+    <t>aporema</t>
+  </si>
+  <si>
+    <t>Smit &amp; Rosicky</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975 (Female)</t>
+  </si>
+  <si>
+    <t>Lewis2954</t>
+  </si>
+  <si>
+    <t>Lewis1882</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis Brelih, 1975</t>
+  </si>
+  <si>
+    <t>Palaeopsylla aporema Smit &amp; Rosicky, 1976</t>
+  </si>
+  <si>
+    <t>makaluensis</t>
+  </si>
+  <si>
+    <t>Brelih, 1975</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Palaeopsylla makaluensis</t>
+  </si>
+  <si>
+    <t>Rhopalopsyllidae</t>
+  </si>
+  <si>
+    <t>Rhopalopsyllinae</t>
+  </si>
+  <si>
+    <t>Polygenis</t>
+  </si>
+  <si>
+    <t>dentei</t>
+  </si>
+  <si>
+    <t>Guimaráes</t>
+  </si>
+  <si>
+    <t>Lewis2203</t>
+  </si>
+  <si>
+    <t>Polygenis dentei Guimaráes, 1947</t>
+  </si>
+  <si>
+    <t>Guimaráes, 1947</t>
+  </si>
+  <si>
+    <t>Polygenis dentei</t>
+  </si>
+  <si>
+    <t>Archaeopsyllinae</t>
+  </si>
+  <si>
+    <t>Pulex</t>
+  </si>
+  <si>
+    <t>canis</t>
+  </si>
+  <si>
+    <t>Pulex canis Curtis, 1826 (junior homonym); Pulex canis Dugès, 1832 (junior homonym); Ctenocephalus novemdentatus Kolenati, 1859</t>
+  </si>
+  <si>
+    <t>Lewis2841</t>
+  </si>
+  <si>
+    <t>Lewis517</t>
+  </si>
+  <si>
+    <t>Pulex canis Curtis, 1826</t>
+  </si>
+  <si>
+    <t>Ctenocephalides canis (Curtis, 1926)</t>
+  </si>
+  <si>
+    <t>Curtis, 1826</t>
+  </si>
+  <si>
+    <t>junior homonym</t>
+  </si>
+  <si>
+    <t>Pulex canis</t>
+  </si>
+  <si>
+    <t>Neopsyllinae</t>
+  </si>
+  <si>
+    <t>grandis</t>
+  </si>
+  <si>
+    <t>Neopsylla striata Stewart, 1926; Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Lewis3239</t>
+  </si>
+  <si>
+    <t>Lewis2514</t>
+  </si>
+  <si>
+    <t>Pulex gigas Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Tamiophila grandis (Rothschild, 1902)</t>
+  </si>
+  <si>
+    <t>gigas</t>
+  </si>
+  <si>
+    <t>Kirby, 1837</t>
+  </si>
+  <si>
+    <t>Pulex gigas</t>
+  </si>
+  <si>
+    <t>Leptopsyllidae</t>
+  </si>
+  <si>
+    <t>Leptopsyllinae</t>
+  </si>
+  <si>
+    <t>segnis</t>
+  </si>
+  <si>
+    <t>(Schönherr)</t>
+  </si>
+  <si>
+    <t>Pulex musculi Dugès, 1832; Pulex musculi Bouché, 1835 (junior homonym of Pulex musculi Dugès, 1832); Ctenophthalmus quadridentatus Kolenati, 1859; Ctenophthalmus bisbidentatus Kolenati, 1859;Typhlopsylla mexicana Baker, 1896;</t>
+  </si>
+  <si>
+    <t>Lewis3199</t>
+  </si>
+  <si>
+    <t>Lewis1328</t>
+  </si>
+  <si>
+    <t>Pulex musculi Bouché, 1835</t>
+  </si>
+  <si>
+    <t>Leptopsylla segnis (Schönherr, 1811)</t>
+  </si>
+  <si>
+    <t>musculi</t>
+  </si>
+  <si>
+    <t>Bouché, 1835</t>
+  </si>
+  <si>
+    <t>junior homonym of Pulex musculi Dugès, 1832</t>
+  </si>
+  <si>
+    <t>Pulex musculi</t>
+  </si>
+  <si>
+    <t>Lewis3349</t>
+  </si>
+  <si>
+    <t>Pulex vespertilionis Bouché, 1835</t>
+  </si>
+  <si>
+    <t>vespertilionis</t>
+  </si>
+  <si>
+    <t>Pulex vespertilionis</t>
+  </si>
+  <si>
+    <t>Pygiopsylla</t>
+  </si>
+  <si>
+    <t>hoplia</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922 (female); Pygiopsylla spinata Holland, 1969</t>
+  </si>
+  <si>
+    <t>Lewis2986</t>
+  </si>
+  <si>
+    <t>Lewis2257</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla hoplia Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>congrua</t>
+  </si>
+  <si>
+    <t>Jordan &amp; Rothschild, 1922</t>
+  </si>
+  <si>
+    <t>Pygiopsylla congrua</t>
+  </si>
+  <si>
+    <t>Lewis2333</t>
+  </si>
+  <si>
+    <t>Doratopsyllinae</t>
+  </si>
+  <si>
+    <t>Spalacopsylla</t>
+  </si>
+  <si>
+    <t>Ewing</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930 (junior synonym)</t>
+  </si>
+  <si>
+    <t>Lewis2735</t>
+  </si>
+  <si>
+    <t>Lewis41</t>
+  </si>
+  <si>
+    <t>Spalacopsylla Pinto, 1930</t>
+  </si>
+  <si>
+    <t>Adoratopsylla Ewing, 1925</t>
+  </si>
+  <si>
+    <t>Pinto, 1930</t>
+  </si>
+  <si>
+    <t>junior synonym</t>
+  </si>
+  <si>
+    <t>Lewis2533</t>
+  </si>
+  <si>
+    <t>Trichopsylla</t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863; Trichopsylla Jordan &amp; Rothschild, 1920 (junior homonym of Trichopsylla Kolenati, 1863); Trichopsylla Ewing &amp; Fox, 1943 (junior homonym of Trichopsylla Kolenati, 1863)</t>
+  </si>
+  <si>
+    <t>Lewis2736</t>
+  </si>
+  <si>
+    <t>Lewis91</t>
+  </si>
+  <si>
+    <t>Trichopsylla Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Amalaraeus Ioff, 1936</t>
+  </si>
+  <si>
+    <t>Kolenati, 1863</t>
+  </si>
+  <si>
+    <t>Lewis2710</t>
   </si>
 </sst>
 </file>
@@ -1160,11 +1739,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1320,16 +1897,16 @@
         <v>46</v>
       </c>
       <c r="I2">
-        <v>2790</v>
+        <v>3001</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
         <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M2" t="s">
         <v>43</v>
@@ -1442,16 +2019,16 @@
         <v>46</v>
       </c>
       <c r="I3">
-        <v>3171</v>
+        <v>3235</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
         <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
         <v>43</v>
@@ -1549,31 +2126,31 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F4">
-        <v>1826</v>
+        <v>1916</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
         <v>46</v>
       </c>
       <c r="I4">
-        <v>330</v>
+        <v>2932</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
         <v>43</v>
@@ -1591,10 +2168,10 @@
         <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="T4" t="s">
         <v>43</v>
@@ -1627,7 +2204,7 @@
         <v>43</v>
       </c>
       <c r="AD4" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="AE4" t="s">
         <v>43</v>
@@ -1639,7 +2216,7 @@
         <v>43</v>
       </c>
       <c r="AH4" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="s">
         <v>43</v>
@@ -1648,7 +2225,7 @@
         <v>43</v>
       </c>
       <c r="AK4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AL4" t="s">
         <v>43</v>
@@ -1657,45 +2234,45 @@
         <v>43</v>
       </c>
       <c r="AN4" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F5">
-        <v>1944</v>
+        <v>1856</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5">
-        <v>319</v>
+        <v>3305</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="K5" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
         <v>43</v>
@@ -1713,10 +2290,10 @@
         <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="T5" t="s">
         <v>43</v>
@@ -1749,19 +2326,19 @@
         <v>43</v>
       </c>
       <c r="AD5" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="AF5" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="AG5" t="s">
         <v>43</v>
       </c>
       <c r="AH5" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="AI5" t="s">
         <v>43</v>
@@ -1770,7 +2347,7 @@
         <v>43</v>
       </c>
       <c r="AK5" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AL5" t="s">
         <v>43</v>
@@ -1779,39 +2356,39 @@
         <v>43</v>
       </c>
       <c r="AN5" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F6">
-        <v>1946</v>
+        <v>1826</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
       <c r="I6">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
@@ -1835,7 +2412,7 @@
         <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
         <v>43</v>
@@ -1871,7 +2448,7 @@
         <v>43</v>
       </c>
       <c r="AD6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="s">
         <v>43</v>
@@ -1883,7 +2460,7 @@
         <v>43</v>
       </c>
       <c r="AH6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AI6" t="s">
         <v>43</v>
@@ -1901,7 +2478,7 @@
         <v>43</v>
       </c>
       <c r="AN6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
@@ -1912,34 +2489,34 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="F7">
-        <v>1905</v>
+        <v>1866</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
       <c r="I7">
-        <v>399</v>
+        <v>3262</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
         <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
         <v>43</v>
@@ -1957,10 +2534,10 @@
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="T7" t="s">
         <v>43</v>
@@ -1993,7 +2570,7 @@
         <v>43</v>
       </c>
       <c r="AD7" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="AE7" t="s">
         <v>43</v>
@@ -2005,7 +2582,7 @@
         <v>43</v>
       </c>
       <c r="AH7" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AI7" t="s">
         <v>43</v>
@@ -2014,7 +2591,7 @@
         <v>43</v>
       </c>
       <c r="AK7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AL7" t="s">
         <v>43</v>
@@ -2023,45 +2600,45 @@
         <v>43</v>
       </c>
       <c r="AN7" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="F8">
-        <v>1930</v>
+        <v>1955</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
       <c r="I8">
-        <v>417</v>
+        <v>3075</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
         <v>43</v>
@@ -2079,10 +2656,10 @@
         <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="T8" t="s">
         <v>43</v>
@@ -2115,43 +2692,2480 @@
         <v>43</v>
       </c>
       <c r="AD8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9">
+        <v>1955</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>3266</v>
+      </c>
+      <c r="J9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S9" t="s">
+        <v>145</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10">
+        <v>1916</v>
+      </c>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>3214</v>
+      </c>
+      <c r="J10" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>158</v>
+      </c>
+      <c r="S10" t="s">
+        <v>108</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11">
+        <v>1922</v>
+      </c>
+      <c r="G11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>3154</v>
+      </c>
+      <c r="J11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" t="s">
+        <v>168</v>
+      </c>
+      <c r="S11" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>1856</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12">
+        <v>3195</v>
+      </c>
+      <c r="J12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>173</v>
+      </c>
+      <c r="S12" t="s">
+        <v>120</v>
+      </c>
+      <c r="T12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13">
+        <v>1898</v>
+      </c>
+      <c r="G13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>3196</v>
+      </c>
+      <c r="J13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" t="s">
+        <v>181</v>
+      </c>
+      <c r="S13" t="s">
+        <v>182</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>1944</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>1252</v>
+      </c>
+      <c r="J14" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" t="s">
+        <v>43</v>
+      </c>
+      <c r="W14" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15">
+        <v>1856</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>2882</v>
+      </c>
+      <c r="J15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" t="s">
+        <v>190</v>
+      </c>
+      <c r="S15" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" t="s">
+        <v>43</v>
+      </c>
+      <c r="X15" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>1895</v>
+      </c>
+      <c r="G16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <v>3218</v>
+      </c>
+      <c r="J16" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" t="s">
+        <v>199</v>
+      </c>
+      <c r="S16" t="s">
+        <v>200</v>
+      </c>
+      <c r="T16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17">
+        <v>1976</v>
+      </c>
+      <c r="G17" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17">
+        <v>2954</v>
+      </c>
+      <c r="J17" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" t="s">
+        <v>210</v>
+      </c>
+      <c r="S17" t="s">
+        <v>211</v>
+      </c>
+      <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18">
+        <v>1947</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18">
+        <v>2203</v>
+      </c>
+      <c r="J18" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" t="s">
+        <v>222</v>
+      </c>
+      <c r="S18" t="s">
+        <v>43</v>
+      </c>
+      <c r="T18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19">
+        <v>1926</v>
+      </c>
+      <c r="G19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19">
+        <v>2841</v>
+      </c>
+      <c r="J19" t="s">
+        <v>229</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" t="s">
+        <v>231</v>
+      </c>
+      <c r="S19" t="s">
+        <v>232</v>
+      </c>
+      <c r="T19" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>1902</v>
+      </c>
+      <c r="G20" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>3239</v>
+      </c>
+      <c r="J20" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" t="s">
+        <v>240</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" t="s">
+        <v>241</v>
+      </c>
+      <c r="S20" t="s">
+        <v>242</v>
+      </c>
+      <c r="T20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" t="s">
+        <v>43</v>
+      </c>
+      <c r="X20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21">
+        <v>1811</v>
+      </c>
+      <c r="G21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>3199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" t="s">
+        <v>252</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" t="s">
+        <v>253</v>
+      </c>
+      <c r="S21" t="s">
+        <v>254</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>257</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22">
+        <v>1856</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22">
+        <v>3349</v>
+      </c>
+      <c r="J22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" t="s">
+        <v>260</v>
+      </c>
+      <c r="S22" t="s">
+        <v>120</v>
+      </c>
+      <c r="T22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23">
+        <v>1922</v>
+      </c>
+      <c r="G23" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23">
+        <v>2986</v>
+      </c>
+      <c r="J23" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" t="s">
+        <v>267</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" t="s">
+        <v>268</v>
+      </c>
+      <c r="S23" t="s">
+        <v>269</v>
+      </c>
+      <c r="T23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24">
+        <v>1946</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24">
+        <v>2333</v>
+      </c>
+      <c r="J24" t="s">
+        <v>273</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25">
+        <v>1925</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25">
+        <v>2735</v>
+      </c>
+      <c r="J25" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" t="s">
+        <v>279</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" t="s">
+        <v>280</v>
+      </c>
+      <c r="S25" t="s">
+        <v>281</v>
+      </c>
+      <c r="T25" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26">
+        <v>1905</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26">
+        <v>2533</v>
+      </c>
+      <c r="J26" t="s">
+        <v>284</v>
+      </c>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" t="s">
+        <v>74</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" t="s">
+        <v>43</v>
+      </c>
+      <c r="X26" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27">
+        <v>1936</v>
+      </c>
+      <c r="G27" t="s">
+        <v>286</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27">
+        <v>2736</v>
+      </c>
+      <c r="J27" t="s">
+        <v>287</v>
+      </c>
+      <c r="K27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" t="s">
+        <v>288</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" t="s">
+        <v>289</v>
+      </c>
+      <c r="S27" t="s">
+        <v>290</v>
+      </c>
+      <c r="T27" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" t="s">
+        <v>43</v>
+      </c>
+      <c r="W27" t="s">
+        <v>43</v>
+      </c>
+      <c r="X27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
         <v>80</v>
       </c>
-      <c r="AE8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28">
+        <v>1930</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28">
+        <v>2710</v>
+      </c>
+      <c r="J28" t="s">
+        <v>292</v>
+      </c>
+      <c r="K28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" t="s">
+        <v>83</v>
+      </c>
+      <c r="S28" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" t="s">
+        <v>43</v>
+      </c>
+      <c r="W28" t="s">
+        <v>43</v>
+      </c>
+      <c r="X28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF28" t="s">
         <v>3</v>
       </c>
-      <c r="AG8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AG28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH28" t="s">
         <v>84</v>
       </c>
-      <c r="AI8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AI28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK28" t="s">
         <v>53</v>
       </c>
-      <c r="AL8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN8" t="s">
+      <c r="AL28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN28" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN8">
-    <sortCondition ref="AN2:AN8"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>